--- a/графики/график Останкино.xlsx
+++ b/графики/график Останкино.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F065070B-0D83-4399-A6D1-6982C634C3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9CA0E5-A93D-4C23-B4FB-6E7673C251FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$M$1087</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$1212</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4664" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4664" uniqueCount="479">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1481,6 +1481,9 @@
   </si>
   <si>
     <t>оставлено место для Доброцен-Луганск (0,55т)</t>
+  </si>
+  <si>
+    <t>01,11,25</t>
   </si>
 </sst>
 </file>
@@ -3965,7 +3968,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A1082" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1102" sqref="H1102"/>
+      <selection pane="bottomLeft" activeCell="H1103" sqref="H1103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -31334,7 +31337,7 @@
         <v>412</v>
       </c>
       <c r="G1083" s="94" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H1083" s="135"/>
       <c r="I1083" s="95"/>
@@ -31355,7 +31358,7 @@
       </c>
       <c r="F1084" s="359"/>
       <c r="G1084" s="139" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H1084" s="306" t="s">
         <v>416</v>
@@ -31378,7 +31381,7 @@
       </c>
       <c r="F1085" s="359"/>
       <c r="G1085" s="139" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H1085" s="140"/>
       <c r="I1085" s="307"/>
@@ -31399,7 +31402,7 @@
       </c>
       <c r="F1086" s="359"/>
       <c r="G1086" s="139" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H1086" s="140"/>
       <c r="I1086" s="307"/>
@@ -31420,7 +31423,7 @@
       </c>
       <c r="F1087" s="360"/>
       <c r="G1087" s="99" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H1087" s="349"/>
       <c r="I1087" s="100"/>
